--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>202300</v>
+      </c>
+      <c r="F8" s="3">
         <v>188200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>176100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>151500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>126800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>110500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>86100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>94400</v>
+      </c>
+      <c r="F9" s="3">
         <v>75900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>52300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>49900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>40300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>34700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>29800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>107900</v>
+      </c>
+      <c r="F10" s="3">
         <v>112300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>123800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>101600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>86500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>75800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>56300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="F17" s="3">
         <v>50200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>56500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>55500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>43900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>38900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>33800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>145400</v>
+      </c>
+      <c r="F18" s="3">
         <v>138000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>119600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>96000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>82900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>71600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>52300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1075,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-458800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-19300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>18500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-47900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F23" s="3">
         <v>118700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>124700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>114500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>34900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>72300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>50700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F26" s="3">
         <v>118700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>124700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>114500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>34900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>72300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>50700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>44300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F27" s="3">
         <v>118700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>124700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>114500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>34900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>72300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>50700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>44300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>458800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F32" s="3">
         <v>19300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-18500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>47900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F33" s="3">
         <v>118700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>124700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>114500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>34900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>72300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>50700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>44300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F35" s="3">
         <v>118700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>124700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>114500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>34900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>72300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>50700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>44300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>378500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>309600</v>
+      </c>
+      <c r="F41" s="3">
         <v>184600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>228900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>94700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>121600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>147800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>155800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F43" s="3">
         <v>25600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,37 +1841,49 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,37 +1911,49 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8992200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8856900</v>
+      </c>
+      <c r="F47" s="3">
         <v>8325800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7281400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6874900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5813700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4716400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3498800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3041900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F52" s="3">
         <v>13000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>18900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9418300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9203600</v>
+      </c>
+      <c r="F54" s="3">
         <v>8568700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7547800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6980000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5951000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4875900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3668900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3072000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,95 +2225,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F57" s="3">
         <v>16400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>121600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>17200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>38200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>701000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>883000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>620000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>170100</v>
+      </c>
+      <c r="F59" s="3">
         <v>168600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>145700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>114700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>99700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>88300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>60200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>47100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,37 +2361,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3638600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3038200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2459000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1570600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2068800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1684700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1354600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1485500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1338500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3911000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3226300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2644000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1837900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2899700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2686200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2103000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1570900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1398000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-447300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F72" s="3">
         <v>12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5507300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5977300</v>
+      </c>
+      <c r="F76" s="3">
         <v>5924600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5709900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4080300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3264800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2772800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2098000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1674000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-312600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F81" s="3">
         <v>118700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>124700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>114500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>34900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>72300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>50700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>44300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-373100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-376500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-170900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-939000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-393200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-571900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3445,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-59000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-44500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-38900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-35400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-23100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-16500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-15000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>438900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>496000</v>
+      </c>
+      <c r="F100" s="3">
         <v>990500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>319900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>910200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1056600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1116200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>528900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>577700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>119500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-50200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>149100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-28800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>135700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E8" s="3">
         <v>204700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>202300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>188200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>176100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>151500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>110500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E9" s="3">
         <v>96100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>34700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E10" s="3">
         <v>108600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>107900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>112300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>123800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>101600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E17" s="3">
         <v>58500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E18" s="3">
         <v>146200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>145400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>138000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>119600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>82900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-458800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-47900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-312600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>140200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>118700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>124700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>114500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-312600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>140200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>118700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>124700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>114500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-312600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>140200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>118700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>124700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>114500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="E32" s="3">
         <v>458800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>47900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-312600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>140200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>118700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>124700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>114500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-312600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>140200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>118700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>124700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>114500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E41" s="3">
         <v>378500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>309600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>228900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>94700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,43 +1943,49 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E45" s="3">
         <v>41000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,43 +2019,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9262800</v>
+      </c>
+      <c r="E47" s="3">
         <v>8992200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8856900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8325800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7281400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6874900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5813700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4716400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3498800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3041900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9497100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9418300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9203600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8568700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7547800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6980000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5951000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4875900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3668900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3072000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E57" s="3">
         <v>66000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>121600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,67 +2407,73 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>701000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>883000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>620000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E59" s="3">
         <v>206400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>170100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>168600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>145700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>99700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>88300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,43 +2507,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3494900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3638600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3038200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2459000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1570600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2068800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1684700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1354600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1485500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1338500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3911400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3911000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3226300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2644000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1837900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2899700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2686200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2103000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1570900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1398000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-293700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-447300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5585800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5507300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5977300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5924600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5709900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4080300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3264800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2772800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2098000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1674000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-312600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>140200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>118700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>124700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>114500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-373100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-376500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-170900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-939000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-393200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-571900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-94300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-78700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-44500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-38900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-381600</v>
+      </c>
+      <c r="E100" s="3">
         <v>438900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>496000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>990500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>319900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>910200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1056600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1116200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>528900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>577700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-194900</v>
+      </c>
+      <c r="E102" s="3">
         <v>65800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>119500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>149100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>135700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E8" s="3">
         <v>190200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>204700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>202300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>188200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>176100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>151500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>126800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>86100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>65400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E9" s="3">
         <v>95900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>96100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E10" s="3">
         <v>94300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>112300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>123800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>101600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E17" s="3">
         <v>61100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E18" s="3">
         <v>129100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>145400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>138000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>119600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>82900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1144,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E20" s="3">
         <v>174500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-458800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-47900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E23" s="3">
         <v>303600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-312600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>140200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>118700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>124700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>114500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E26" s="3">
         <v>303600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-312600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>118700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>124700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>114500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E27" s="3">
         <v>303600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-312600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>118700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>124700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>114500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-174500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>458800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>47900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E33" s="3">
         <v>303600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-312600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>140200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>118700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>124700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>114500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E35" s="3">
         <v>303600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-312600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>140200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>118700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>124700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>114500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>213600</v>
+      </c>
+      <c r="E41" s="3">
         <v>180000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>378500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>309600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>228900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>94700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2042,52 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E45" s="3">
         <v>44100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,46 +2124,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9967900</v>
+      </c>
+      <c r="E47" s="3">
         <v>9262800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8992200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8856900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8325800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7281400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6874900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5813700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4716400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3498800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3041900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>8000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10234300</v>
+      </c>
+      <c r="E54" s="3">
         <v>9497100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9418300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9203600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8568700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7547800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6980000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5951000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4875900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3668900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3072000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E57" s="3">
         <v>230300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>121600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2410,70 +2544,76 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>701000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>883000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>620000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E59" s="3">
         <v>186200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>206400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>170100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>168600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>145700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,46 +2650,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4305600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3494900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3638600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3038200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2459000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1570600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2068800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1684700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1354600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1485500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1338500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4539900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3911400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3911000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3226300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2644000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1837900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2899700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2686200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2103000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1570900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1398000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-293700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-447300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5694300</v>
+      </c>
+      <c r="E76" s="3">
         <v>5585800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5507300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5977300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5924600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5709900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4080300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3264800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2772800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2098000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1674000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E81" s="3">
         <v>303600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-312600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>140200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>118700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>124700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>114500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-666100</v>
+      </c>
+      <c r="E89" s="3">
         <v>186700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-373100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-376500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-170900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-939000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-393200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-571900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-125300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-94300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-78700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-59000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-44500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-38900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>698500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-381600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>438900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>496000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>990500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>319900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>910200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1056600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1116200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>528900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>577700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-194900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>65800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>119500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>149100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>135700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E8" s="3">
         <v>187100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>190200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>204700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>202300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>188200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>176100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>151500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>65400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E9" s="3">
         <v>95600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>96100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E10" s="3">
         <v>91500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>94300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>107900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>112300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>123800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E17" s="3">
         <v>59600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E18" s="3">
         <v>127500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>129100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>146200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>145400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>138000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>52300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E20" s="3">
         <v>88600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>174500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-458800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,72 +1307,78 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E23" s="3">
         <v>216000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>303600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-312600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>140200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>118700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>124700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>114500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E26" s="3">
         <v>216000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>303600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-312600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>140200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>118700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>124700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>114500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E27" s="3">
         <v>216000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>303600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-312600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>140200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>118700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>124700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>114500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-88600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-174500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>458800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E33" s="3">
         <v>216000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>303600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-312600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>140200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>118700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>124700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E35" s="3">
         <v>216000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>303600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-312600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>140200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>118700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>124700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>349100</v>
+      </c>
+      <c r="E41" s="3">
         <v>213600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>180000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>378500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>309600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>184600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>228900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>94700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>155800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,49 +2140,55 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E45" s="3">
         <v>42900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,49 +2228,55 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10899200</v>
+      </c>
+      <c r="E47" s="3">
         <v>9967900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9262800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8992200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8856900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8325800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7281400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6874900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5813700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4716400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3498800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3041900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11304400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10234300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9497100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9418300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9203600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8568700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7547800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6980000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5951000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4875900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3668900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3072000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E57" s="3">
         <v>44800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>230300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>121600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2547,73 +2680,79 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>701000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>883000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>620000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E59" s="3">
         <v>189500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>186200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>206400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>170100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>168600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,49 +2792,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5292700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4305600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3494900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3638600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3038200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2459000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1570600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2068800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1684700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1354600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1485500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1338500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5557900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4539900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3911400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3911000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3226300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2644000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1837900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2899700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2686200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2103000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1570900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1398000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-229000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-447300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5746400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5694300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5585800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5507300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5977300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5924600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5709900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4080300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3264800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2772800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2098000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1674000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E81" s="3">
         <v>216000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>303600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-312600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>140200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>118700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>124700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-707800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-666100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>186700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-373100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-376500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-170900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-939000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-393200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-571900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-106100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-125300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-94300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-78700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-44500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-38900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-23100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>845300</v>
+      </c>
+      <c r="E100" s="3">
         <v>698500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-381600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>438900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>496000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>990500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>319900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>910200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1056600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1116200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>528900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>577700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E102" s="3">
         <v>32500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-194900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>65800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>119500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>149100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>135700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E8" s="3">
         <v>221300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>187100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>190200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>204700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>202300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>188200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>151500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E9" s="3">
         <v>104300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>95600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>96100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>94400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E10" s="3">
         <v>117000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>94300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>107900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>123800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E17" s="3">
         <v>106700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>61100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E18" s="3">
         <v>114600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>127500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>129100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>146200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>145400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>138000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>52300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E20" s="3">
         <v>69700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>88600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>174500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-458800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-47900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,60 +1350,66 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E23" s="3">
         <v>184400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>216000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>303600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-312600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>140200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>118700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>124700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>114500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1380,8 +1426,8 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E26" s="3">
         <v>180700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>216000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>303600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-312600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>118700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>124700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>72300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E27" s="3">
         <v>180700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>216000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>303600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-312600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>140200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>118700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>124700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>114500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>72300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-69700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-88600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-174500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>458800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>47900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E33" s="3">
         <v>180700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>216000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>303600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-312600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>140200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>118700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>124700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E35" s="3">
         <v>180700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>216000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>303600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-312600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>140200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>118700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>124700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E41" s="3">
         <v>349100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>213600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>378500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>184600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>155800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E43" s="3">
         <v>8700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2239,58 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E45" s="3">
         <v>38600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,52 +2333,58 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11296300</v>
+      </c>
+      <c r="E47" s="3">
         <v>10899200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9967900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9262800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8992200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8856900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8325800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7281400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6874900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5813700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4716400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3498800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3041900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11588200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11304400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10234300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9497100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9418300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9203600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8568700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7547800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6980000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5951000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4875900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3668900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3072000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2749,73 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E57" s="3">
         <v>35900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>230300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>121600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2690,69 +2824,75 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>701000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>883000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>620000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E59" s="3">
         <v>229300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>189500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>186200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>206400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>170100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>168600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>99700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2935,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5545900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5292700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4305600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3494900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3638600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3038200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2459000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1570600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2068800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1684700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1354600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1485500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1338500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5786200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5557900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4539900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3911400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3911000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3226300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2644000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1837900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2899700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2686200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2103000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1570900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1398000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-198400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-229000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-447300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5802100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5746400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5694300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5585800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5507300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5977300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5924600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5709900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4080300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3264800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2772800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2098000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1674000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E81" s="3">
         <v>180700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>216000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>303600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-312600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>140200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>118700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>124700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-707800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-666100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>186700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-373100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-376500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-170900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-939000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-393200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-571900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-127900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-106100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-125300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-94300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-78700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-59000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-44500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-38900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-23100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E100" s="3">
         <v>845300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>698500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-381600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>438900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>496000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>990500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>319900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>910200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1056600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1116200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>528900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>577700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-102600</v>
+      </c>
+      <c r="E102" s="3">
         <v>137400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-194900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>65800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>119500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>149100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>135700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E8" s="3">
         <v>221600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>221300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>187100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>190200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>204700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>202300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>188200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>151500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E9" s="3">
         <v>112000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>104300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>95600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>95900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>96100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>94400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>117000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>91500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>108600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>107900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>112300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>123800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>101600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>86500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E17" s="3">
         <v>118900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>61100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E18" s="3">
         <v>102700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>127500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>129100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>146200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>145400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>138000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>52300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E20" s="3">
         <v>57800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>69700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>88600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>174500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-458800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,66 +1393,72 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E23" s="3">
         <v>160500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>184400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>216000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>303600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-312600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>140200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>118700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>114500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>1600</v>
       </c>
       <c r="E24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F24" s="3">
         <v>3700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1429,8 +1475,8 @@
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>160500</v>
+        <v>150200</v>
       </c>
       <c r="E26" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F26" s="3">
         <v>180700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>216000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>303600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-312600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>140200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>118700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>124700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>160500</v>
+        <v>150200</v>
       </c>
       <c r="E27" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F27" s="3">
         <v>180700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>216000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>303600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-312600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>140200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>118700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>124700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>114500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>72300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-57800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-69700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-88600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-174500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>458800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>160500</v>
+        <v>150200</v>
       </c>
       <c r="E33" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F33" s="3">
         <v>180700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>216000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>303600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-312600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>140200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>118700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>124700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>50700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>160500</v>
+        <v>150200</v>
       </c>
       <c r="E35" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F35" s="3">
         <v>180700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>216000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>303600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-312600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>140200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>118700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>124700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>50700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>612800</v>
+      </c>
+      <c r="E41" s="3">
         <v>247600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>349100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>213600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>378500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>309600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>155800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,55 +2338,61 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,55 +2438,61 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11975900</v>
+      </c>
+      <c r="E47" s="3">
         <v>11296300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10899200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9967900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9262800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8992200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8856900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8325800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7281400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6874900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5813700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4716400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3498800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3041900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12635400</v>
+      </c>
+      <c r="E54" s="3">
         <v>11588200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11304400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10234300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9497100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9418300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9203600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8568700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7547800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6980000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5951000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4875900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3668900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3072000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E57" s="3">
         <v>42100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>230300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>121600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2827,72 +2961,78 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>701000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>883000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>620000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E59" s="3">
         <v>198200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>186200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>206400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>170100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>168600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>145700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>99700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>60200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3078,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6383700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5545900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5292700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4305600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3494900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3638600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3038200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2459000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1570600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2068800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1684700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1354600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1485500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1338500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6793200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5786200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5557900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4539900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3911400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3911000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3226300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2644000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1837900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2899700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2686200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2103000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1570900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1398000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-161900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-229000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-447300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5842300</v>
+      </c>
+      <c r="E76" s="3">
         <v>5802100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5746400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5694300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5585800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5507300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5977300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5924600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5709900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4080300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3264800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2772800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2098000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1674000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>160500</v>
+        <v>150200</v>
       </c>
       <c r="E81" s="3">
+        <v>157800</v>
+      </c>
+      <c r="F81" s="3">
         <v>180700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>216000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>303600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-312600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>140200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>118700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>124700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>50700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-349300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-225000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-707800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-666100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>186700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-373100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-376500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-170900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-939000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-393200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-571900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-132900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-127900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-106100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-125300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-94300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-78700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-59000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-44500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-38900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-16500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>721300</v>
+      </c>
+      <c r="E100" s="3">
         <v>122400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>845300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>698500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-381600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>438900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>496000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>990500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>319900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>910200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1056600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1116200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>528900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>577700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-102600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>137400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-194900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>65800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>119500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>149100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>135700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E8" s="3">
         <v>249000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>221600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>221300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>187100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>190200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>204700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>202300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>188200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>151500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>110500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>86100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>65400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E9" s="3">
         <v>122800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>104300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>95600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>95900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>96100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>94400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E10" s="3">
         <v>126200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>117000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>91500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>94300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>108600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>107900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>112300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>123800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>101600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E17" s="3">
         <v>129900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>118900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>61100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>58500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>38900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E18" s="3">
         <v>119100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>102700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>114600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>127500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>129100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>146200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>145400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>138000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1279,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E20" s="3">
         <v>32700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>57800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>69700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>88600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>174500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-458800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-47900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,72 +1436,78 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E23" s="3">
         <v>151800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>160500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>184400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>216000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>303600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-312600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>140200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>118700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>114500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>72300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
@@ -1478,8 +1524,8 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E26" s="3">
         <v>150200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>157800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>180700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>216000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>303600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-312600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>140200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>124700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>114500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E27" s="3">
         <v>150200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>157800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>180700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>216000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>303600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-312600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>140200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>124700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>114500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-57800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-69700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-88600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-174500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>458800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>47900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E33" s="3">
         <v>150200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>157800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>180700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>216000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>303600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-312600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>140200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>124700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E35" s="3">
         <v>150200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>157800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>180700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>216000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>303600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-312600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>140200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>124700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>780500</v>
+      </c>
+      <c r="E41" s="3">
         <v>612800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>247600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>349100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>213600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>180000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>378500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>309600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>228900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>155800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,58 +2437,64 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E45" s="3">
         <v>28300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,58 +2543,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12172500</v>
+      </c>
+      <c r="E47" s="3">
         <v>11975900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11296300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10899200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9967900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9262800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8992200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8856900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8325800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7281400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6874900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5813700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4716400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3498800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3041900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E52" s="3">
         <v>14400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13075900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12635400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11588200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11304400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10234300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9497100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9418300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9203600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8568700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7547800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6980000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5951000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4875900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3668900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3072000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E57" s="3">
         <v>184100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>230300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>121600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2964,75 +3098,81 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>701000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>883000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>620000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E59" s="3">
         <v>225300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>198200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>186200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>206400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>170100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>168600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>145700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,58 +3221,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6934900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6383700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5545900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5292700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4305600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3494900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3638600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3038200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2459000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1570600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2068800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1684700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1354600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1485500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1338500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7198900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6793200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5786200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5557900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4539900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3911400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3911000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3226300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2644000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1837900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2899700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2686200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2103000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1570900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1398000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-133300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-161900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-229000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-293700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-447300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5877000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5842300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5802100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5746400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5694300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5585800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5507300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5977300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5924600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5709900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4080300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3264800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2772800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2098000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1674000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E81" s="3">
         <v>150200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>157800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>180700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>216000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>303600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-312600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>140200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>124700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-280300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-349300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-225000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-707800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-666100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>186700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-373100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-376500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-170900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-939000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-393200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-571900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-109800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-132900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-127900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-106100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-125300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-94300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-78700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-59000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-38900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-35400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>447800</v>
+      </c>
+      <c r="E100" s="3">
         <v>721300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>122400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>845300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>698500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-381600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>438900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>496000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>990500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>319900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>910200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1056600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1116200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>528900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>577700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E102" s="3">
         <v>372000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>137400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-194900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>65800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>119500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-50200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>149100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>135700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E8" s="3">
         <v>269200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>249000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>221600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>221300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>190200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>204700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>202300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>188200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>151500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>86100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>65400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E9" s="3">
         <v>130100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>122800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>95600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>96100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>94400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E10" s="3">
         <v>139100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>126200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>91500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>108600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>112300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>123800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>101600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E17" s="3">
         <v>138700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>129900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>38900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>33800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E18" s="3">
         <v>130500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>102700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>114600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>127500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>129100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>146200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>145400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,66 +1312,70 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E20" s="3">
         <v>16700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>57800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>69700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>88600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>174500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-458800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-47900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>174000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,78 +1478,84 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E23" s="3">
         <v>147200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>151800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>160500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>184400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>216000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>303600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-312600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>140200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>118700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>124700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>114500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1527,8 +1572,8 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E26" s="3">
         <v>142900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>150200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>157800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>180700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>216000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>303600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-312600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>124700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E27" s="3">
         <v>142900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>157800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>180700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>216000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>303600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-312600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>140200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>124700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-57800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-69700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-88600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-174500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>458800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>47900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E33" s="3">
         <v>142900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>157800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>180700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>216000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>303600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-312600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>140200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>118700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>124700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E35" s="3">
         <v>142900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>157800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>180700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>216000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>303600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-312600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>140200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>118700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>124700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E41" s="3">
         <v>780500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>612800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>247600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>349100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>213600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>180000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>378500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>228900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>155800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>81600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,61 +2535,67 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E45" s="3">
         <v>27100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,61 +2647,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12823400</v>
+      </c>
+      <c r="E47" s="3">
         <v>12172500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11975900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11296300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10899200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9967900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9262800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8992200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8856900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8325800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7281400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6874900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5813700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4716400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3498800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3041900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13298200</v>
+      </c>
+      <c r="E54" s="3">
         <v>13075900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12635400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11588200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11304400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10234300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9497100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9418300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9203600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8568700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7547800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6980000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5951000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4875900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3668900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3072000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E57" s="3">
         <v>45600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>184100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>230300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>121600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3101,78 +3234,84 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>701000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>883000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>620000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E59" s="3">
         <v>218400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>225300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>198200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>229300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>189500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>206400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>170100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>168600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>145700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>114700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,61 +3363,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7079300</v>
+      </c>
+      <c r="E61" s="3">
         <v>6934900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6383700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5545900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5292700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4305600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3494900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3638600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3038200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2459000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1570600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2068800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1684700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1354600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1485500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1338500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7360300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7198900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6793200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5786200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5557900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4539900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3911400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3911000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3226300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2644000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1837900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2899700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2686200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2103000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1570900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1398000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-133300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-161900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-229000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-293700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-447300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5937900</v>
+      </c>
+      <c r="E76" s="3">
         <v>5877000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5842300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5802100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5746400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5694300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5585800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5507300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5977300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5924600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5709900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4080300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3264800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2772800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2098000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1674000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E81" s="3">
         <v>142900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>157800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>180700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>216000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>303600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-312600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>140200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>118700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>124700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-372500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-280300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-349300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-225000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-707800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-666100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>186700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-373100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-376500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-170900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-939000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-393200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-571900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-107800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-109800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-132900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-127900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-106100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-125300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-94300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-78700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-59000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-44500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-38900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-35400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-16500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E100" s="3">
         <v>447800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>721300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>122400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>845300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>698500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-381600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>438900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>496000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>990500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>319900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>910200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1056600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1116200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>528900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>577700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-347600</v>
+      </c>
+      <c r="E102" s="3">
         <v>167500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>372000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>137400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-194900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>65800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-50200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>149100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>135700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E8" s="3">
         <v>281600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>269200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>249000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>221600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>221300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>187100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>190200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>204700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>202300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>188200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>176100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>151500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E9" s="3">
         <v>136000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>122800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>95600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>95900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>96100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>94400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>29800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>24100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E10" s="3">
         <v>145600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>139100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>126200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>117000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>91500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>94300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>123800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>101600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>86500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E17" s="3">
         <v>143800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>138700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>129900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>106700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>38900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>33800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E18" s="3">
         <v>137800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>130500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>102700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>114600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>127500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>129100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>146200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>145400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,72 +1346,76 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="E20" s="3">
         <v>36200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>57800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>69700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>88600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>174500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-458800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>174000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E23" s="3">
         <v>174000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>147200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>151800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>160500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>184400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>216000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>303600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-312600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>140200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>124700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>114500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -1575,8 +1621,8 @@
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E26" s="3">
         <v>174000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>142900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>150200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>157800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>180700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>216000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>303600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-312600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>124700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>72300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>44300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E27" s="3">
         <v>174000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>142900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>157800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>180700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>216000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>303600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-312600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>140200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>118700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>124700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>72300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-57800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-69700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-88600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-174500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>458800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>47900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E33" s="3">
         <v>174000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>142900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>150200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>157800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>180700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>216000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>303600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-312600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>140200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>118700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>124700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E35" s="3">
         <v>174000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>142900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>150200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>157800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>180700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>216000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>303600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-312600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>140200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>124700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275300</v>
+      </c>
+      <c r="E41" s="3">
         <v>425700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>780500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>612800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>247600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>349100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>213600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>180000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>378500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>309600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>147800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>155800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2634,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>23700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,64 +2752,70 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12846200</v>
+      </c>
+      <c r="E47" s="3">
         <v>12823400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12172500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11975900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11296300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10899200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9967900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9262800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8992200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8856900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8325800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7281400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6874900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5813700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4716400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3498800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3041900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E52" s="3">
         <v>21500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13203700</v>
+      </c>
+      <c r="E54" s="3">
         <v>13298200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13075900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12635400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11588200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11304400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10234300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9497100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9418300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9203600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8568700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7547800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6980000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5951000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4875900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3668900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3072000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E57" s="3">
         <v>46800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>184100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>230300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>121600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3237,81 +3371,87 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>701000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>883000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>620000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E59" s="3">
         <v>234200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>218400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>225300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>198200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>229300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>189500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>206400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>170100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>168600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>114700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>99700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>60200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3506,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7034200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7079300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6934900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6383700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5545900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5292700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4305600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3494900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3638600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3038200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2459000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1570600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2068800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1684700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1354600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1485500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1338500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7332200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7360300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7198900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6793200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5786200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5557900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4539900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3911400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3911000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3226300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2644000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1837900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2899700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2686200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2103000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1570900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1398000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-161900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-229000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-293700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-447300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5871500</v>
+      </c>
+      <c r="E76" s="3">
         <v>5937900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5877000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5842300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5802100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5746400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5694300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5585800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5507300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5977300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5924600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5709900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4080300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3264800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2772800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2098000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1674000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E81" s="3">
         <v>174000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>142900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>150200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>157800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>180700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>216000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>303600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-312600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>140200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>118700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>124700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-372500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-280300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-349300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-225000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-707800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-666100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>186700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-373100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-376500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-170900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-939000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-393200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-571900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-110300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-107800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-109800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-132900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-127900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-106100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-125300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-94300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-78700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-59000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-44500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-38900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-16500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E100" s="3">
         <v>24900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>447800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>721300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>122400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>845300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>698500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-381600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>438900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>496000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>990500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>319900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>910200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1056600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1116200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>528900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>577700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-347600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>167500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>372000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>137400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-194900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>119500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-50200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>149100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>135700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E8" s="3">
         <v>264200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>281600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>269200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>249000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>221600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>221300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>187100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>204700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>188200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>176100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>151500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>126800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>65400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E9" s="3">
         <v>132100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>130100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>122800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>104300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>95600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>96100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>94400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>29800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>24100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E10" s="3">
         <v>132100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>145600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>139100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>126200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>117000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>91500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>107900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>101600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>86500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E17" s="3">
         <v>141800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>143800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>129900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>56500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>38900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>33800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E18" s="3">
         <v>122400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>130500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>119100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>102700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>114600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>127500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>129100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>146200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>145400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>138000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>71600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,78 +1380,82 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-160100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-78400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>36200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>57800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>69700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>88600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>174500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-458800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-47900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>174000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E23" s="3">
         <v>44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>174000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>147200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>151800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>160500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>184400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>216000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>303600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-312600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>140200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>124700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>114500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1624,8 +1670,8 @@
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E26" s="3">
         <v>44000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>174000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>142900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>150200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>157800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>180700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>216000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>303600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-312600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>118700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>114500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>34900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>72300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>44300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E27" s="3">
         <v>44000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>174000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>142900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>150200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>157800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>180700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>216000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>303600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-312600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>140200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>118700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>124700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>72300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>44300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E32" s="3">
         <v>78400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-36200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-57800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-69700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-88600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-174500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>458800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>47900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E33" s="3">
         <v>44000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>174000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>150200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>157800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>180700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>216000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>303600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-312600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>140200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>118700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>124700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>44300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E35" s="3">
         <v>44000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>174000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>150200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>157800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>180700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>216000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>303600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-312600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>140200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>124700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>44300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E41" s="3">
         <v>275300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>425700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>780500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>612800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>247600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>349100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>213600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>378500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>309600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>184600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>147800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>155800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E43" s="3">
         <v>15900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,67 +2733,73 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,67 +2857,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12717200</v>
+      </c>
+      <c r="E47" s="3">
         <v>12846200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12823400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12172500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11975900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11296300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10899200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9967900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9262800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8992200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8856900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8325800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7281400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6874900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5813700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4716400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3498800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3041900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E52" s="3">
         <v>57500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13088400</v>
+      </c>
+      <c r="E54" s="3">
         <v>13203700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13298200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13075900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12635400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11588200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11304400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10234300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9497100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9418300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9203600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8568700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7547800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6980000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5951000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4875900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3668900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3072000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E57" s="3">
         <v>48300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>184100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>230300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>66000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>121600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3374,84 +3508,90 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>701000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>883000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>620000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E59" s="3">
         <v>249700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>234200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>218400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>225300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>198200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>229300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>189500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>186200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>206400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>170100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>168600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>145700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>114700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>99700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>60200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,67 +3649,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7053500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7034200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7079300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6934900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6383700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5545900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5292700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4305600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3494900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3638600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3038200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2459000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1570600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2068800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1684700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1354600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1485500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1338500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7383900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7332200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7360300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7198900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6793200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5786200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5557900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4539900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3911400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3911000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3226300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2644000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1837900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2899700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2686200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2103000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1570900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1398000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-291800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-134800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-133300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-161900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-229000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-293700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-447300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5704400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5871500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5937900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5877000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5842300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5802100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5746400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5694300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5585800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5507300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5977300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5924600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5709900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4080300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3264800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2772800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2098000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1674000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E81" s="3">
         <v>44000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>174000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>150200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>157800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>180700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>216000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>303600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-312600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>140200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>118700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>124700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>44300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-372500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-280300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-349300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-225000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-707800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-666100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>186700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-373100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-376500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-170900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-939000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-393200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-571900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-110100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-110300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-107800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-109800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-132900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-127900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-106100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-125300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-94300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-78700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-59000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-44500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-35400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-16500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>447800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>721300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>122400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>845300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>698500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-381600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>438900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>496000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>990500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>319900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>910200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1056600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1116200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>528900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>577700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-114400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-347600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>167500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>372000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>137400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-194900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>119500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-50200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>149100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>135700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E8" s="3">
         <v>273300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>264200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>281600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>269200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>249000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>221600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>221300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>187100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>204700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>188200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>176100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>151500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>126800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E9" s="3">
         <v>140300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>130100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>122800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>104300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>96100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>94400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>29800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>24100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E10" s="3">
         <v>133000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>132100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>145600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>139100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>126200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>117000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>91500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>108600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>107900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>112300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>123800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>101600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>86500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>167300</v>
+      </c>
+      <c r="E17" s="3">
         <v>148200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>143800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>138700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>129900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>118900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>56500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>38900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>33800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E18" s="3">
         <v>125100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>122400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>130500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>119100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>102700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>114600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>129100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>146200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>145400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>138000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>119600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>82900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>38600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-160100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-78400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>32700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>57800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>69700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>88600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>174500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-458800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-47900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,11 +1491,11 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>174000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>174000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>147200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>151800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>184400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>216000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>303600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-312600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>140200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>124700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>114500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>72300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1644,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1673,8 +1719,8 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>44000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>174000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>142900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>150200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>157800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>180700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>216000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>303600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-312600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>140200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>118700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>124700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>44300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>174000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>142900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>150200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>157800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>180700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>216000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>303600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-312600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>140200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>118700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>124700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>44300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="E32" s="3">
         <v>160100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>78400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-32700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-57800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-69700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-88600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-174500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>458800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>47900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>174000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>150200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>157800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>180700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>216000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>303600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-312600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>140200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>118700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>124700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>44300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>174000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>150200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>157800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>180700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>216000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>303600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-312600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>140200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>118700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>124700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>44300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E41" s="3">
         <v>245900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>425700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>780500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>612800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>247600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>349100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>213600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>378500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>309600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>184600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>228900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>147800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>155800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E43" s="3">
         <v>23200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>81600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,70 +2832,76 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,70 +2962,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12931100</v>
+      </c>
+      <c r="E47" s="3">
         <v>12717200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12846200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12823400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12172500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11975900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11296300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>10899200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9967900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9262800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8992200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8856900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8325800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7281400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6874900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5813700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4716400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3498800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3041900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E52" s="3">
         <v>97400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>57500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13413200</v>
+      </c>
+      <c r="E54" s="3">
         <v>13088400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13203700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13298200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13075900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12635400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11588200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11304400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10234300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9497100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9418300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9203600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8568700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7547800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6980000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5951000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4875900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3668900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3072000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,61 +3544,64 @@
         <v>46900</v>
       </c>
       <c r="E57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F57" s="3">
         <v>48300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>184100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>230300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>66000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>121600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3511,87 +3645,93 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>701000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>883000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>620000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>322400</v>
+      </c>
+      <c r="E59" s="3">
         <v>283600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>249700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>234200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>218400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>225300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>198200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>229300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>186200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>206400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>170100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>168600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>145700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>114700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>99700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>60200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,70 +3792,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7196200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7053500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7034200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7079300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6934900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6383700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5545900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5292700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4305600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3494900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3638600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3038200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2459000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1570600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2068800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1684700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1354600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1485500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1338500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7565400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7383900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7332200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7360300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7198900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6793200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5786200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5557900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4539900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3911400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3911000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3226300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2644000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1837900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2899700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2686200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2103000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1570900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1398000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-291800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-133300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-161900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-229000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-293700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-447300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5847800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5704400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5871500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5937900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5877000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5842300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5802100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5746400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5694300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5585800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5507300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5977300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5924600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5709900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4080300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3264800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2772800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2098000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1674000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>174000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>150200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>157800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>180700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>216000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>303600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-312600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>140200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>118700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>124700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>44300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E89" s="3">
         <v>88300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-372500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-280300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-349300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-225000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-707800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-666100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>186700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-373100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-376500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-170900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-939000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-393200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-571900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-122300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-110100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-110300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-107800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-109800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-132900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-127900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-106100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-125300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-94300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-78700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-59000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-38900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-35400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-16500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>447800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>721300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>122400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>845300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>698500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-381600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>438900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>496000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>990500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>319900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>910200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1056600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1116200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>528900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>577700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E102" s="3">
         <v>10500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-114400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-347600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>167500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>372000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>137400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-194900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>119500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-50200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>149100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>135700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>350500</v>
+      </c>
+      <c r="E8" s="3">
         <v>314100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>273300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>264200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>281600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>269200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>249000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>221600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>221300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>187100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>204700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>188200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>176100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>151500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>126800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>86100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>65400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E9" s="3">
         <v>157900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>132100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>136000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>130100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>104300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>96100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>94400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>29800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>24100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E10" s="3">
         <v>156200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>133000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>132100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>145600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>139100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>126200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>91500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>108600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>107900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>112300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>123800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>101600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E17" s="3">
         <v>167300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>148200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>143800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>138700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>129900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>118900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>56900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>56500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>43900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>38900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>33800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E18" s="3">
         <v>146800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>125100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>122400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>130500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>102700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>129100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>146200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>145400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>138000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>119600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>52300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>38600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E20" s="3">
         <v>118600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-160100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-78400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>57800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>88600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>174500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-458800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-47900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1494,11 +1530,11 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>174000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,78 +1649,84 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E23" s="3">
         <v>265400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>174000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>147200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>151800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>160500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>184400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>216000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>303600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-312600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>140200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>124700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>114500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>72300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1693,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
@@ -1722,8 +1767,8 @@
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E26" s="3">
         <v>265400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>44000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>174000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>142900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>150200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>157800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>180700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>216000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>303600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-312600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>140200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>124700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>72300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>44300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E27" s="3">
         <v>265400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>174000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>142900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>150200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>157800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>180700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>303600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-312600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>140200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>118700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>124700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>50700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>44300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-118600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>160100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>78400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-32700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-57800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-88600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-174500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>458800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>47900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E33" s="3">
         <v>265400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>174000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>150200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>157800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>180700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>216000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>303600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-312600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>140200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>118700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>124700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>50700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>44300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E35" s="3">
         <v>265400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>174000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>150200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>157800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>180700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>216000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>303600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-312600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>140200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>118700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>124700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>50700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>44300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E41" s="3">
         <v>361000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>245900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>275300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>425700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>780500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>612800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>247600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>349100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>213600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>180000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>378500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>309600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>184600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>228900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>147800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>155800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>22600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E43" s="3">
         <v>20300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>81600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,73 +2930,79 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,73 +3066,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13118400</v>
+      </c>
+      <c r="E47" s="3">
         <v>12931100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12717200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12846200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12823400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12172500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11975900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11296300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10899200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9967900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9262800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8992200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8856900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8325800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7281400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6874900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5813700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4716400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3498800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3041900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E52" s="3">
         <v>94200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>97400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13584900</v>
+      </c>
+      <c r="E54" s="3">
         <v>13413200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13088400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13203700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13298200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13075900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12635400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11588200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11304400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10234300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9497100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9418300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9203600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8568700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7547800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6980000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5951000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4875900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3668900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3072000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46900</v>
+        <v>47600</v>
       </c>
       <c r="E57" s="3">
         <v>46900</v>
       </c>
       <c r="F57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="G57" s="3">
         <v>48300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>184100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>230300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>66000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>121600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3648,90 +3781,96 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>701000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>883000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>620000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>373100</v>
+      </c>
+      <c r="E59" s="3">
         <v>322400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>283600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>249700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>234200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>218400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>225300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>198200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>229300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>189500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>186200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>206400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>170100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>168600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>145700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>114700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>99700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>88300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>60200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,73 +3934,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7281700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7196200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7053500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7034200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7079300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6934900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6383700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5545900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5292700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4305600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3494900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3638600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3038200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2459000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1570600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2068800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1684700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1354600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1485500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1338500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7702500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7565400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7383900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7332200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7360300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7198900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6793200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5786200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5557900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4539900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3911400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3911000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3226300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2644000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1837900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2899700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2686200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2103000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1570900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1398000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-291800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-161900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-198400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-229000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-293700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-447300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5882400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5847800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5704400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5871500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5937900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5877000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5842300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5802100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5746400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5694300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5585800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5507300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5977300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5924600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5709900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4080300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3264800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2772800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2098000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1674000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>191900</v>
+      </c>
+      <c r="E81" s="3">
         <v>265400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>174000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>150200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>157800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>180700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>216000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>303600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-312600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>140200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>118700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>124700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>50700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>44300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E89" s="3">
         <v>47800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>88300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-372500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-280300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-349300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-225000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-707800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-666100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>186700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-373100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-376500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-170900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-939000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-393200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-571900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-122100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-122300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-110100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-110300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-107800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-109800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-132900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-127900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-106100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-125300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-94300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-78700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-44500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-38900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-35400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-16500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="E100" s="3">
         <v>64200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>447800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>721300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>122400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>845300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>698500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-381600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>438900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>496000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>990500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>319900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>910200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1056600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1116200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>528900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>577700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>111900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-114400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-347600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>167500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>372000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>137400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-194900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>119500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>149100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>135700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ORCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ORCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>377600</v>
+      </c>
+      <c r="E8" s="3">
         <v>350500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>314100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>273300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>264200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>281600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>269200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>249000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>221600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>187100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>204700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>202300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>188200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>176100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>151500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>126800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>110500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>86100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>65400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E9" s="3">
         <v>179800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>132100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>130100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>104300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>96100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>29800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>24100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>20200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>186600</v>
+      </c>
+      <c r="E10" s="3">
         <v>170700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>156200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>133000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>132100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>145600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>139100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>126200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>91500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>94300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>108600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>107900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>123800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>101600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>86500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>75800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>41300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>199800</v>
+      </c>
+      <c r="E17" s="3">
         <v>188000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>167300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>148200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>141800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>143800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>138700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>129900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>56900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>56500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>43900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>38900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>33800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>177800</v>
+      </c>
+      <c r="E18" s="3">
         <v>162500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>146800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>125100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>122400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>130500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>102700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>129100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>146200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>145400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>138000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>119600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>52300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>38600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E20" s="3">
         <v>33400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>118600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-160100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-78400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>32700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>88600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>174500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-458800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-47900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,11 +1570,11 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>174000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,85 +1692,91 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E23" s="3">
         <v>195900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>265400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>174000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>147200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>151800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>184400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>216000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>303600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-312600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>140200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>124700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>114500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>34900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1741,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
@@ -1770,8 +1816,8 @@
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E26" s="3">
         <v>191900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>265400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>44000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>174000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>142900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>150200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>157800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>180700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>216000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>303600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-312600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>140200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>124700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>72300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>50700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>44300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E27" s="3">
         <v>191900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>265400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>174000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>142900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>150200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>157800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>180700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>216000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>303600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-312600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>140200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>118700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>124700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>72300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>50700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>44300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-33400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-118600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>160100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>78400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-32700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-88600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-174500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>458800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>47900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E33" s="3">
         <v>191900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>265400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>174000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>142900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>150200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>157800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>180700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>216000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>303600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-312600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>140200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>118700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>124700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>50700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>44300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E35" s="3">
         <v>191900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>265400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>174000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>142900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>150200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>157800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>180700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>216000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>303600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-312600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>140200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>118700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>124700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>50700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>44300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E41" s="3">
         <v>348700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>361000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>245900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>275300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>425700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>780500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>612800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>247600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>349100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>213600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>180000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>378500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>309600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>184600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>228900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>147800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>155800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>22600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>17400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>81600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>23400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,76 +3029,82 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,76 +3171,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13253300</v>
+      </c>
+      <c r="E47" s="3">
         <v>13118400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12931100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12717200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12846200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12823400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12172500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11975900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11296300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10899200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9967900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9262800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8992200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8856900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8325800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7281400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6874900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5813700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4716400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3498800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3041900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2398700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E52" s="3">
         <v>96400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>94200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13679100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13584900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13413200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13088400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13203700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13298200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13075900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12635400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11588200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11304400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10234300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9497100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9418300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9203600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8568700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7547800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6980000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5951000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4875900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3668900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3072000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2443500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,99 +3795,103 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E57" s="3">
         <v>47600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>46900</v>
       </c>
       <c r="F57" s="3">
         <v>46900</v>
       </c>
       <c r="G57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="H57" s="3">
         <v>48300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>230300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>66000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>121600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>25300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>400000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3784,93 +3918,99 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>701000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>883000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>620000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E59" s="3">
         <v>373100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>322400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>283600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>249700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>234200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>218400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>225300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>198200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>229300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>189500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>186200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>206400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>170100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>168600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>145700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>114700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>99700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>88300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>60200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>40400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,76 +4077,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6983200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7281700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7196200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7053500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7034200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7079300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6934900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6383700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5545900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5292700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4305600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3494900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3638600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3038200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2459000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1570600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2068800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1684700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1354600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1485500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1338500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>919400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7761700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7702500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7565400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7383900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7332200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7360300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7198900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6793200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5786200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5557900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4539900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3911400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3911000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3226300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2644000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1837900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2899700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2686200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2103000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1570900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1398000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>971000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-148400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-291800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-56400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-161900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-198400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-229000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-293700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-447300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5917400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5882400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5847800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5704400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5871500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5937900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5877000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5842300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5802100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5746400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5694300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5585800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5507300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5977300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5924600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5709900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4080300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3264800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2772800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2098000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1674000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1472600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E81" s="3">
         <v>191900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>265400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>174000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>142900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>150200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>157800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>180700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>216000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>303600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-312600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>140200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>118700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>124700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>50700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>44300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E89" s="3">
         <v>94700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>47800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>88300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-372500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-280300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-349300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-225000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-707800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-666100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>186700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-373100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-376500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1040700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-170900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-939000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1080800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1125900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-393200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-571900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-236800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-145300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-133900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-122100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-122300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-110100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-110300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-107800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-109800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-132900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-127900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-106100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-125300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-94300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-59000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-44500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-38900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-35400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-16500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-15000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-104800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>64200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-77800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>447800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>721300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>122400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>845300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>698500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-381600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>438900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>496000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>990500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>319900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>910200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1056600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1116200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>528900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>577700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>237600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>111900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-114400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-347600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>167500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>372000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>137400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-194900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>65800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>119500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-50200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>149100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>135700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>800</v>
       </c>
     </row>
